--- a/data/fixeddatatesting.xlsx
+++ b/data/fixeddatatesting.xlsx
@@ -773,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B151"/>
+  <dimension ref="A1:B143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1057,13 +1057,16 @@
       <c r="A35">
         <v>1</v>
       </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1071,7 +1074,7 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1079,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1087,7 +1090,7 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1095,47 +1098,47 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1143,95 +1146,95 @@
         <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1239,15 +1242,15 @@
         <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1255,15 +1258,15 @@
         <v>3</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1271,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1279,39 +1282,39 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B66" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1319,31 +1322,31 @@
         <v>1</v>
       </c>
       <c r="B68" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B70" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B71" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1351,7 +1354,7 @@
         <v>4</v>
       </c>
       <c r="B72" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1359,55 +1362,55 @@
         <v>4</v>
       </c>
       <c r="B73" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B74" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B75" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B77" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B78" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B79" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1415,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="B80" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1423,23 +1426,23 @@
         <v>1</v>
       </c>
       <c r="B81" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B82" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B83" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1447,15 +1450,15 @@
         <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B85" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1463,7 +1466,7 @@
         <v>1</v>
       </c>
       <c r="B86" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1471,28 +1474,31 @@
         <v>1</v>
       </c>
       <c r="B87" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="B88" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B89" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B90" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -1500,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="B91" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -1508,60 +1514,63 @@
         <v>3</v>
       </c>
       <c r="B92" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B93" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B94" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B95" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="B96" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B97" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B98" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B99" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1569,36 +1578,39 @@
         <v>3</v>
       </c>
       <c r="B100" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B101" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B102" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="B103" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B104" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -1606,39 +1618,39 @@
         <v>1</v>
       </c>
       <c r="B105" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B106" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B107" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B108" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B109" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -1646,23 +1658,23 @@
         <v>4</v>
       </c>
       <c r="B110" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B111" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B112" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -1670,7 +1682,7 @@
         <v>4</v>
       </c>
       <c r="B113" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -1678,31 +1690,31 @@
         <v>4</v>
       </c>
       <c r="B114" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B115" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B116" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B117" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -1710,28 +1722,31 @@
         <v>4</v>
       </c>
       <c r="B118" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="B119" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B120" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B121" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -1739,15 +1754,15 @@
         <v>2</v>
       </c>
       <c r="B122" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B123" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -1755,23 +1770,23 @@
         <v>1</v>
       </c>
       <c r="B124" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B125" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B126" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -1779,12 +1794,15 @@
         <v>2</v>
       </c>
       <c r="B127" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="B128" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -1792,15 +1810,15 @@
         <v>2</v>
       </c>
       <c r="B129" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B130" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -1808,39 +1826,39 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B133" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B134" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B135" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -1848,7 +1866,7 @@
         <v>2</v>
       </c>
       <c r="B136" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -1856,28 +1874,31 @@
         <v>1</v>
       </c>
       <c r="B137" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B138" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="B139" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B140" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -1885,15 +1906,15 @@
         <v>2</v>
       </c>
       <c r="B141" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B142" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -1901,67 +1922,6 @@
         <v>2</v>
       </c>
       <c r="B143" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>1</v>
-      </c>
-      <c r="B144" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>1</v>
-      </c>
-      <c r="B145" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>1</v>
-      </c>
-      <c r="B146" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>3</v>
-      </c>
-      <c r="B148" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>2</v>
-      </c>
-      <c r="B149" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>2</v>
-      </c>
-      <c r="B150" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>2</v>
-      </c>
-      <c r="B151" t="s">
         <v>143</v>
       </c>
     </row>
